--- a/Cronograma de Actividades.xlsx
+++ b/Cronograma de Actividades.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\utp\tesis1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rebeca\tesis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F8C0D8-4E47-44BC-9B41-C8D5E42D0C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AC1B2F-D2BA-4B01-B985-0E28060D4820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{750968FB-37DF-4641-8B82-2F9E6996F8B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -235,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +258,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -268,7 +276,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,27 +352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,6 +362,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -395,7 +403,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -694,10 +702,10 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.140625" style="1" customWidth="1"/>
@@ -709,154 +717,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="4" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6">
+      <c r="E2" s="11"/>
+      <c r="F2" s="10">
         <v>3</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="10">
         <v>4</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="10">
         <v>5</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="10">
         <v>6</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="10">
         <v>7</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="10">
         <v>8</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="10">
         <v>9</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="10">
         <v>10</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="10">
         <v>11</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="10">
         <v>12</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="10">
         <v>13</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="12">
         <v>14</v>
       </c>
-      <c r="R2" s="7"/>
+      <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="9" t="s">
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="9" t="s">
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="W4" t="s">
@@ -864,146 +872,146 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="9" t="s">
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="9" t="s">
+      <c r="E6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="9" t="s">
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" s="9" t="s">
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
